--- a/applications/travel_model_lu_inputs/2015/Employment/Incommute/ACS 2013-2017 Incommute by Industry.xlsx
+++ b/applications/travel_model_lu_inputs/2015/Employment/Incommute/ACS 2013-2017 Incommute by Industry.xlsx
@@ -5,28 +5,87 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisrael\Documents\GitHub\petrale\applications\travel_model_lu_inputs\2015\Employment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisrael\Documents\GitHub\petrale\applications\travel_model_lu_inputs\2015\Employment\Incommute\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11633" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11633" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="8" r:id="rId1"/>
-    <sheet name="NAICS to MTC Sectors" sheetId="5" r:id="rId2"/>
-    <sheet name="ACS_17_5YR_B08526_Raw" sheetId="1" r:id="rId3"/>
-    <sheet name="ACS_17_5YR_B08526_Clean" sheetId="3" r:id="rId4"/>
-    <sheet name="PUMS2013-17 Regional Commuters" sheetId="4" r:id="rId5"/>
-    <sheet name="Wrkrs at work vs reg wrkrs" sheetId="6" r:id="rId6"/>
-    <sheet name="Ind_Incommute_Values" sheetId="7" r:id="rId7"/>
-    <sheet name="Incommute_Total" sheetId="9" r:id="rId8"/>
+    <sheet name="1. ACS_17_5YR_B08526_Clean" sheetId="3" r:id="rId2"/>
+    <sheet name="2. PUMS2013-17 Reg. Commuters" sheetId="4" r:id="rId3"/>
+    <sheet name="3. Wrkrs at work vs reg wrkrs" sheetId="6" r:id="rId4"/>
+    <sheet name="4. Ind_Incommute_Values" sheetId="7" r:id="rId5"/>
+    <sheet name="5. Net_Incommute" sheetId="9" r:id="rId6"/>
+    <sheet name="NAICS to MTC Sectors" sheetId="5" r:id="rId7"/>
+    <sheet name="ACS_17_5YR_B08526_Raw" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shimon Israel</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shimon Israel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+From Tab 4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shimon Israel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+From here:
+https://github.com/BayAreaMetro/PUMS-Data/blob/master/Analysis/ACS%20PUMS%202013-2017/Worker%20Research/ACS%202013-2017%20outcommute.R</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="530">
   <si>
     <t>GEO.id</t>
   </si>
@@ -1555,21 +1614,9 @@
     <t>From: https://github.com/BayAreaMetro/PUMS-Data/blob/master/Analysis/ACS%20PUMS%202013-2017/Worker%20Research/ACS%202013-2017%20intra_regional%20commute%20by%20sector.R</t>
   </si>
   <si>
-    <t>PUMS Regional Commuters by Industry</t>
-  </si>
-  <si>
-    <t>Workers at Work by Industry</t>
-  </si>
-  <si>
-    <t>In-Commuters by Industry</t>
-  </si>
-  <si>
     <t>Share of Industry for Incommuters</t>
   </si>
   <si>
-    <t>This spreadsheet distribute the 2013-2017 in-commute by MTC industry sector. The following steps were taken to do this:</t>
-  </si>
-  <si>
     <t>1. Total Bay Area workers at work by industry were taken from ACS 2017 5-year data (Table B08526)</t>
   </si>
   <si>
@@ -1601,6 +1648,33 @@
   </si>
   <si>
     <t>Incommute_Total</t>
+  </si>
+  <si>
+    <t>This spreadsheet distribute the 2013-2017 in-commute by MTC industry sector. The following steps were taken to do this (tabs are named with the below numbering):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The value for incommute is combined with that for outcommute using ACS PUMS 2013-2017(https://github.com/BayAreaMetro/PUMS-Data/blob/master/Analysis/ACS%20PUMS%202013-2017/Worker%20Research/ACS%202013-2017%20outcommute.R) </t>
+  </si>
+  <si>
+    <t>to get "net incommute."</t>
+  </si>
+  <si>
+    <t>Outcommute_Total</t>
+  </si>
+  <si>
+    <t>Net_Incommute</t>
+  </si>
+  <si>
+    <t>total_incommute</t>
+  </si>
+  <si>
+    <t>PUMS 2013-2017 Regional Commuters by Industry</t>
+  </si>
+  <si>
+    <t>Workers at Work by Industry, ACS 2013-2017</t>
+  </si>
+  <si>
+    <t>In-Commuters by Industry, 2013-2017</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,6 +1818,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2413,37 +2500,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -2452,6 +2549,1828 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2">
+        <v>2635</v>
+      </c>
+      <c r="C2">
+        <v>148656</v>
+      </c>
+      <c r="D2">
+        <v>264684</v>
+      </c>
+      <c r="E2">
+        <v>147552</v>
+      </c>
+      <c r="F2">
+        <v>92711</v>
+      </c>
+      <c r="G2">
+        <v>70309</v>
+      </c>
+      <c r="H2">
+        <v>726547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3">
+        <v>3911</v>
+      </c>
+      <c r="C3">
+        <v>95133</v>
+      </c>
+      <c r="D3">
+        <v>146907</v>
+      </c>
+      <c r="E3">
+        <v>50322</v>
+      </c>
+      <c r="F3">
+        <v>49299</v>
+      </c>
+      <c r="G3">
+        <v>42981</v>
+      </c>
+      <c r="H3">
+        <v>388553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4">
+        <v>954</v>
+      </c>
+      <c r="C4">
+        <v>32060</v>
+      </c>
+      <c r="D4">
+        <v>49589</v>
+      </c>
+      <c r="E4">
+        <v>12238</v>
+      </c>
+      <c r="F4">
+        <v>18746</v>
+      </c>
+      <c r="G4">
+        <v>14024</v>
+      </c>
+      <c r="H4">
+        <v>127611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5">
+        <v>5200</v>
+      </c>
+      <c r="C5">
+        <v>10276</v>
+      </c>
+      <c r="D5">
+        <v>30656</v>
+      </c>
+      <c r="E5">
+        <v>14706</v>
+      </c>
+      <c r="F5">
+        <v>8068</v>
+      </c>
+      <c r="G5">
+        <v>7709</v>
+      </c>
+      <c r="H5">
+        <v>76615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6">
+        <v>1573</v>
+      </c>
+      <c r="C6">
+        <v>236585</v>
+      </c>
+      <c r="D6">
+        <v>238502</v>
+      </c>
+      <c r="E6">
+        <v>71194</v>
+      </c>
+      <c r="F6">
+        <v>105521</v>
+      </c>
+      <c r="G6">
+        <v>62360</v>
+      </c>
+      <c r="H6">
+        <v>715735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7">
+        <v>2282</v>
+      </c>
+      <c r="C7">
+        <v>109021</v>
+      </c>
+      <c r="D7">
+        <v>120804</v>
+      </c>
+      <c r="E7">
+        <v>75868</v>
+      </c>
+      <c r="F7">
+        <v>53430</v>
+      </c>
+      <c r="G7">
+        <v>38850</v>
+      </c>
+      <c r="H7">
+        <v>400255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8">
+        <v>5818</v>
+      </c>
+      <c r="C8">
+        <v>263972</v>
+      </c>
+      <c r="D8">
+        <v>320817</v>
+      </c>
+      <c r="E8">
+        <v>237602</v>
+      </c>
+      <c r="F8">
+        <v>146189</v>
+      </c>
+      <c r="G8">
+        <v>93460</v>
+      </c>
+      <c r="H8">
+        <v>1067858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9">
+        <v>2332</v>
+      </c>
+      <c r="C9">
+        <v>20021</v>
+      </c>
+      <c r="D9">
+        <v>56536</v>
+      </c>
+      <c r="E9">
+        <v>23392</v>
+      </c>
+      <c r="F9">
+        <v>26955</v>
+      </c>
+      <c r="G9">
+        <v>17783</v>
+      </c>
+      <c r="H9">
+        <v>147019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10">
+        <v>7095</v>
+      </c>
+      <c r="C10">
+        <v>38801</v>
+      </c>
+      <c r="D10">
+        <v>85397</v>
+      </c>
+      <c r="E10">
+        <v>38321</v>
+      </c>
+      <c r="F10">
+        <v>30066</v>
+      </c>
+      <c r="G10">
+        <v>27079</v>
+      </c>
+      <c r="H10">
+        <v>226759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11">
+        <v>31800</v>
+      </c>
+      <c r="C11">
+        <v>954525</v>
+      </c>
+      <c r="D11">
+        <v>1313892</v>
+      </c>
+      <c r="E11">
+        <v>671195</v>
+      </c>
+      <c r="F11">
+        <v>530985</v>
+      </c>
+      <c r="G11">
+        <v>374555</v>
+      </c>
+      <c r="H11">
+        <v>3876952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2">
+        <v>1921</v>
+      </c>
+      <c r="C2">
+        <v>137850</v>
+      </c>
+      <c r="D2">
+        <v>253505</v>
+      </c>
+      <c r="E2">
+        <v>130844</v>
+      </c>
+      <c r="F2">
+        <v>81703</v>
+      </c>
+      <c r="G2">
+        <v>66081</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>671904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3">
+        <v>3259</v>
+      </c>
+      <c r="C3">
+        <v>90923</v>
+      </c>
+      <c r="D3">
+        <v>144548</v>
+      </c>
+      <c r="E3">
+        <v>47340</v>
+      </c>
+      <c r="F3">
+        <v>44443</v>
+      </c>
+      <c r="G3">
+        <v>42611</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">SUM(B3:G3)</f>
+        <v>373124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>888</v>
+      </c>
+      <c r="C4">
+        <v>32389</v>
+      </c>
+      <c r="D4">
+        <v>48104</v>
+      </c>
+      <c r="E4">
+        <v>11916</v>
+      </c>
+      <c r="F4">
+        <v>16997</v>
+      </c>
+      <c r="G4">
+        <v>14189</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>124483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5">
+        <v>4762</v>
+      </c>
+      <c r="C5">
+        <v>9458</v>
+      </c>
+      <c r="D5">
+        <v>29663</v>
+      </c>
+      <c r="E5">
+        <v>13772</v>
+      </c>
+      <c r="F5">
+        <v>7986</v>
+      </c>
+      <c r="G5">
+        <v>7325</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>72966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6">
+        <v>1677</v>
+      </c>
+      <c r="C6">
+        <v>232852</v>
+      </c>
+      <c r="D6">
+        <v>234628</v>
+      </c>
+      <c r="E6">
+        <v>65954</v>
+      </c>
+      <c r="F6">
+        <v>101827</v>
+      </c>
+      <c r="G6">
+        <v>60457</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>697395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B7">
+        <v>2126</v>
+      </c>
+      <c r="C7">
+        <v>104642</v>
+      </c>
+      <c r="D7">
+        <v>118645</v>
+      </c>
+      <c r="E7">
+        <v>70556</v>
+      </c>
+      <c r="F7">
+        <v>49878</v>
+      </c>
+      <c r="G7">
+        <v>37641</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>383488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8">
+        <v>4944</v>
+      </c>
+      <c r="C8">
+        <v>249554</v>
+      </c>
+      <c r="D8">
+        <v>305609</v>
+      </c>
+      <c r="E8">
+        <v>218765</v>
+      </c>
+      <c r="F8">
+        <v>130364</v>
+      </c>
+      <c r="G8">
+        <v>86989</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>996225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9">
+        <v>1813</v>
+      </c>
+      <c r="C9">
+        <v>19493</v>
+      </c>
+      <c r="D9">
+        <v>51606</v>
+      </c>
+      <c r="E9">
+        <v>19273</v>
+      </c>
+      <c r="F9">
+        <v>22163</v>
+      </c>
+      <c r="G9">
+        <v>16252</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>130600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10">
+        <v>6176</v>
+      </c>
+      <c r="C10">
+        <v>37622</v>
+      </c>
+      <c r="D10">
+        <v>86231</v>
+      </c>
+      <c r="E10">
+        <v>37276</v>
+      </c>
+      <c r="F10">
+        <v>27926</v>
+      </c>
+      <c r="G10">
+        <v>26515</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>221746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>27566</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:G11" si="1">SUM(C2:C10)</f>
+        <v>914783</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1272539</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>615696</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>483287</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>358060</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3671931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2635</v>
+      </c>
+      <c r="C3" s="2">
+        <v>148656</v>
+      </c>
+      <c r="D3" s="2">
+        <v>264684</v>
+      </c>
+      <c r="E3" s="2">
+        <v>147552</v>
+      </c>
+      <c r="F3" s="2">
+        <v>92711</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70309</v>
+      </c>
+      <c r="H3" s="2">
+        <v>726547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3911</v>
+      </c>
+      <c r="C4" s="2">
+        <v>95133</v>
+      </c>
+      <c r="D4" s="2">
+        <v>146907</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50322</v>
+      </c>
+      <c r="F4" s="2">
+        <v>49299</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42981</v>
+      </c>
+      <c r="H4" s="2">
+        <v>388553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="2">
+        <v>954</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32060</v>
+      </c>
+      <c r="D5" s="2">
+        <v>49589</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12238</v>
+      </c>
+      <c r="F5" s="2">
+        <v>18746</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14024</v>
+      </c>
+      <c r="H5" s="2">
+        <v>127611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30656</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14706</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8068</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7709</v>
+      </c>
+      <c r="H6" s="2">
+        <v>76615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1573</v>
+      </c>
+      <c r="C7" s="2">
+        <v>236585</v>
+      </c>
+      <c r="D7" s="2">
+        <v>238502</v>
+      </c>
+      <c r="E7" s="2">
+        <v>71194</v>
+      </c>
+      <c r="F7" s="2">
+        <v>105521</v>
+      </c>
+      <c r="G7" s="2">
+        <v>62360</v>
+      </c>
+      <c r="H7" s="2">
+        <v>715735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2282</v>
+      </c>
+      <c r="C8" s="2">
+        <v>109021</v>
+      </c>
+      <c r="D8" s="2">
+        <v>120804</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75868</v>
+      </c>
+      <c r="F8" s="2">
+        <v>53430</v>
+      </c>
+      <c r="G8" s="2">
+        <v>38850</v>
+      </c>
+      <c r="H8" s="2">
+        <v>400255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5818</v>
+      </c>
+      <c r="C9" s="2">
+        <v>263972</v>
+      </c>
+      <c r="D9" s="2">
+        <v>320817</v>
+      </c>
+      <c r="E9" s="2">
+        <v>237602</v>
+      </c>
+      <c r="F9" s="2">
+        <v>146189</v>
+      </c>
+      <c r="G9" s="2">
+        <v>93460</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1067858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2332</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20021</v>
+      </c>
+      <c r="D10" s="2">
+        <v>56536</v>
+      </c>
+      <c r="E10" s="2">
+        <v>23392</v>
+      </c>
+      <c r="F10" s="2">
+        <v>26955</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17783</v>
+      </c>
+      <c r="H10" s="2">
+        <v>147019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7095</v>
+      </c>
+      <c r="C11" s="2">
+        <v>38801</v>
+      </c>
+      <c r="D11" s="2">
+        <v>85397</v>
+      </c>
+      <c r="E11" s="2">
+        <v>38321</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30066</v>
+      </c>
+      <c r="G11" s="2">
+        <v>27079</v>
+      </c>
+      <c r="H11" s="2">
+        <v>226759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31800</v>
+      </c>
+      <c r="C12" s="2">
+        <v>954525</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1313892</v>
+      </c>
+      <c r="E12" s="2">
+        <v>671195</v>
+      </c>
+      <c r="F12" s="2">
+        <v>530985</v>
+      </c>
+      <c r="G12" s="2">
+        <v>374555</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3876952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <f>B12/$H12</f>
+        <v>8.202319760471628E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:H13" si="0">C12/$H12</f>
+        <v>0.24620500847057172</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33889818599766003</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17312440288143882</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13695939490610148</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6610687983756313E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17">
+        <v>1921</v>
+      </c>
+      <c r="C17">
+        <v>137850</v>
+      </c>
+      <c r="D17">
+        <v>253505</v>
+      </c>
+      <c r="E17">
+        <v>130844</v>
+      </c>
+      <c r="F17">
+        <v>81703</v>
+      </c>
+      <c r="G17">
+        <v>66081</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(B17:G17)</f>
+        <v>671904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18">
+        <v>3259</v>
+      </c>
+      <c r="C18">
+        <v>90923</v>
+      </c>
+      <c r="D18">
+        <v>144548</v>
+      </c>
+      <c r="E18">
+        <v>47340</v>
+      </c>
+      <c r="F18">
+        <v>44443</v>
+      </c>
+      <c r="G18">
+        <v>42611</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:H26" si="1">SUM(B18:G18)</f>
+        <v>373124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19">
+        <v>888</v>
+      </c>
+      <c r="C19">
+        <v>32389</v>
+      </c>
+      <c r="D19">
+        <v>48104</v>
+      </c>
+      <c r="E19">
+        <v>11916</v>
+      </c>
+      <c r="F19">
+        <v>16997</v>
+      </c>
+      <c r="G19">
+        <v>14189</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>124483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20">
+        <v>4762</v>
+      </c>
+      <c r="C20">
+        <v>9458</v>
+      </c>
+      <c r="D20">
+        <v>29663</v>
+      </c>
+      <c r="E20">
+        <v>13772</v>
+      </c>
+      <c r="F20">
+        <v>7986</v>
+      </c>
+      <c r="G20">
+        <v>7325</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>72966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21">
+        <v>1677</v>
+      </c>
+      <c r="C21">
+        <v>232852</v>
+      </c>
+      <c r="D21">
+        <v>234628</v>
+      </c>
+      <c r="E21">
+        <v>65954</v>
+      </c>
+      <c r="F21">
+        <v>101827</v>
+      </c>
+      <c r="G21">
+        <v>60457</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>697395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22">
+        <v>2126</v>
+      </c>
+      <c r="C22">
+        <v>104642</v>
+      </c>
+      <c r="D22">
+        <v>118645</v>
+      </c>
+      <c r="E22">
+        <v>70556</v>
+      </c>
+      <c r="F22">
+        <v>49878</v>
+      </c>
+      <c r="G22">
+        <v>37641</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>383488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23">
+        <v>4944</v>
+      </c>
+      <c r="C23">
+        <v>249554</v>
+      </c>
+      <c r="D23">
+        <v>305609</v>
+      </c>
+      <c r="E23">
+        <v>218765</v>
+      </c>
+      <c r="F23">
+        <v>130364</v>
+      </c>
+      <c r="G23">
+        <v>86989</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>996225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24">
+        <v>1813</v>
+      </c>
+      <c r="C24">
+        <v>19493</v>
+      </c>
+      <c r="D24">
+        <v>51606</v>
+      </c>
+      <c r="E24">
+        <v>19273</v>
+      </c>
+      <c r="F24">
+        <v>22163</v>
+      </c>
+      <c r="G24">
+        <v>16252</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>130600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25">
+        <v>6176</v>
+      </c>
+      <c r="C25">
+        <v>37622</v>
+      </c>
+      <c r="D25">
+        <v>86231</v>
+      </c>
+      <c r="E25">
+        <v>37276</v>
+      </c>
+      <c r="F25">
+        <v>27926</v>
+      </c>
+      <c r="G25">
+        <v>26515</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>221746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" s="2">
+        <f>SUM(B17:B25)</f>
+        <v>27566</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:G26" si="2">SUM(C17:C25)</f>
+        <v>914783</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>1272539</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>615696</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>483287</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>358060</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>3671931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <f>B26/$H26</f>
+        <v>7.5072216770957845E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27" si="3">C26/$H26</f>
+        <v>0.24912859201330309</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27" si="4">D26/$H26</f>
+        <v>0.34655852737973564</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27" si="5">E26/$H26</f>
+        <v>0.1676763533955295</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27" si="6">F26/$H26</f>
+        <v>0.13161657994118081</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ref="G27" si="7">G26/$H26</f>
+        <v>9.7512725593155214E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27" si="8">H26/$H26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G30" t="s">
+        <v>450</v>
+      </c>
+      <c r="H30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:B40" si="9">B3-B17</f>
+        <v>714</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" ref="C31:H31" si="10">C3-C17</f>
+        <v>10806</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="10"/>
+        <v>11179</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="10"/>
+        <v>16708</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="10"/>
+        <v>11008</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="10"/>
+        <v>4228</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="10"/>
+        <v>54643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="9"/>
+        <v>652</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:H40" si="11">C4-C18</f>
+        <v>4210</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="11"/>
+        <v>2359</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="11"/>
+        <v>2982</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="11"/>
+        <v>4856</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="11"/>
+        <v>370</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="11"/>
+        <v>15429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="11"/>
+        <v>-329</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="11"/>
+        <v>1485</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="11"/>
+        <v>322</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="11"/>
+        <v>1749</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="11"/>
+        <v>-165</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="11"/>
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="9"/>
+        <v>438</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="11"/>
+        <v>818</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="11"/>
+        <v>993</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="11"/>
+        <v>934</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="11"/>
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>502</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="9"/>
+        <v>-104</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="11"/>
+        <v>3733</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="11"/>
+        <v>3874</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="11"/>
+        <v>5240</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="11"/>
+        <v>3694</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="11"/>
+        <v>1903</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="11"/>
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>503</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="11"/>
+        <v>4379</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="11"/>
+        <v>2159</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="11"/>
+        <v>5312</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="11"/>
+        <v>3552</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="11"/>
+        <v>1209</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="11"/>
+        <v>16767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="9"/>
+        <v>874</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="11"/>
+        <v>14418</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="11"/>
+        <v>15208</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="11"/>
+        <v>18837</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="11"/>
+        <v>15825</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="11"/>
+        <v>6471</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="11"/>
+        <v>71633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>505</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="9"/>
+        <v>519</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="11"/>
+        <v>4930</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="11"/>
+        <v>4119</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="11"/>
+        <v>4792</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="11"/>
+        <v>1531</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="11"/>
+        <v>16419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="9"/>
+        <v>919</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="11"/>
+        <v>1179</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="11"/>
+        <v>-834</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="11"/>
+        <v>1045</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="11"/>
+        <v>2140</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="11"/>
+        <v>564</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="11"/>
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="9"/>
+        <v>4234</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="11"/>
+        <v>39742</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="11"/>
+        <v>41353</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="11"/>
+        <v>55499</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="11"/>
+        <v>47698</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="11"/>
+        <v>16495</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="11"/>
+        <v>205021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>509</v>
+      </c>
+      <c r="B41" s="1">
+        <f>B40/$H40</f>
+        <v>2.0651543012666994E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41" si="12">C40/$H40</f>
+        <v>0.19384355748923282</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41" si="13">D40/$H40</f>
+        <v>0.20170128913623483</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41" si="14">E40/$H40</f>
+        <v>0.27069909911667583</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41" si="15">F40/$H40</f>
+        <v>0.23264933836046064</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ref="G41" si="16">G40/$H40</f>
+        <v>8.0455172884728879E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41" si="17">H40/$H40</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>4234</v>
+      </c>
+      <c r="B2" s="2">
+        <v>39742</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41353</v>
+      </c>
+      <c r="D2" s="2">
+        <v>55499</v>
+      </c>
+      <c r="E2" s="2">
+        <v>47698</v>
+      </c>
+      <c r="F2" s="2">
+        <v>16495</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(A2:F2)</f>
+        <v>205021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>205021</v>
+      </c>
+      <c r="B2" s="2">
+        <v>61029</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2-B2</f>
+        <v>143992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -3073,7 +4992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HE11"/>
   <sheetViews>
@@ -10137,1799 +12056,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2">
-        <v>2635</v>
-      </c>
-      <c r="C2">
-        <v>148656</v>
-      </c>
-      <c r="D2">
-        <v>264684</v>
-      </c>
-      <c r="E2">
-        <v>147552</v>
-      </c>
-      <c r="F2">
-        <v>92711</v>
-      </c>
-      <c r="G2">
-        <v>70309</v>
-      </c>
-      <c r="H2">
-        <v>726547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3">
-        <v>3911</v>
-      </c>
-      <c r="C3">
-        <v>95133</v>
-      </c>
-      <c r="D3">
-        <v>146907</v>
-      </c>
-      <c r="E3">
-        <v>50322</v>
-      </c>
-      <c r="F3">
-        <v>49299</v>
-      </c>
-      <c r="G3">
-        <v>42981</v>
-      </c>
-      <c r="H3">
-        <v>388553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4">
-        <v>954</v>
-      </c>
-      <c r="C4">
-        <v>32060</v>
-      </c>
-      <c r="D4">
-        <v>49589</v>
-      </c>
-      <c r="E4">
-        <v>12238</v>
-      </c>
-      <c r="F4">
-        <v>18746</v>
-      </c>
-      <c r="G4">
-        <v>14024</v>
-      </c>
-      <c r="H4">
-        <v>127611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5">
-        <v>5200</v>
-      </c>
-      <c r="C5">
-        <v>10276</v>
-      </c>
-      <c r="D5">
-        <v>30656</v>
-      </c>
-      <c r="E5">
-        <v>14706</v>
-      </c>
-      <c r="F5">
-        <v>8068</v>
-      </c>
-      <c r="G5">
-        <v>7709</v>
-      </c>
-      <c r="H5">
-        <v>76615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B6">
-        <v>1573</v>
-      </c>
-      <c r="C6">
-        <v>236585</v>
-      </c>
-      <c r="D6">
-        <v>238502</v>
-      </c>
-      <c r="E6">
-        <v>71194</v>
-      </c>
-      <c r="F6">
-        <v>105521</v>
-      </c>
-      <c r="G6">
-        <v>62360</v>
-      </c>
-      <c r="H6">
-        <v>715735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B7">
-        <v>2282</v>
-      </c>
-      <c r="C7">
-        <v>109021</v>
-      </c>
-      <c r="D7">
-        <v>120804</v>
-      </c>
-      <c r="E7">
-        <v>75868</v>
-      </c>
-      <c r="F7">
-        <v>53430</v>
-      </c>
-      <c r="G7">
-        <v>38850</v>
-      </c>
-      <c r="H7">
-        <v>400255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8">
-        <v>5818</v>
-      </c>
-      <c r="C8">
-        <v>263972</v>
-      </c>
-      <c r="D8">
-        <v>320817</v>
-      </c>
-      <c r="E8">
-        <v>237602</v>
-      </c>
-      <c r="F8">
-        <v>146189</v>
-      </c>
-      <c r="G8">
-        <v>93460</v>
-      </c>
-      <c r="H8">
-        <v>1067858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B9">
-        <v>2332</v>
-      </c>
-      <c r="C9">
-        <v>20021</v>
-      </c>
-      <c r="D9">
-        <v>56536</v>
-      </c>
-      <c r="E9">
-        <v>23392</v>
-      </c>
-      <c r="F9">
-        <v>26955</v>
-      </c>
-      <c r="G9">
-        <v>17783</v>
-      </c>
-      <c r="H9">
-        <v>147019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B10">
-        <v>7095</v>
-      </c>
-      <c r="C10">
-        <v>38801</v>
-      </c>
-      <c r="D10">
-        <v>85397</v>
-      </c>
-      <c r="E10">
-        <v>38321</v>
-      </c>
-      <c r="F10">
-        <v>30066</v>
-      </c>
-      <c r="G10">
-        <v>27079</v>
-      </c>
-      <c r="H10">
-        <v>226759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11">
-        <v>31800</v>
-      </c>
-      <c r="C11">
-        <v>954525</v>
-      </c>
-      <c r="D11">
-        <v>1313892</v>
-      </c>
-      <c r="E11">
-        <v>671195</v>
-      </c>
-      <c r="F11">
-        <v>530985</v>
-      </c>
-      <c r="G11">
-        <v>374555</v>
-      </c>
-      <c r="H11">
-        <v>3876952</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B2">
-        <v>1921</v>
-      </c>
-      <c r="C2">
-        <v>138309</v>
-      </c>
-      <c r="D2">
-        <v>253802</v>
-      </c>
-      <c r="E2">
-        <v>131092</v>
-      </c>
-      <c r="F2">
-        <v>81870</v>
-      </c>
-      <c r="G2">
-        <v>66171</v>
-      </c>
-      <c r="H2">
-        <f>SUM(B2:G2)</f>
-        <v>673165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B3">
-        <v>3259</v>
-      </c>
-      <c r="C3">
-        <v>91077</v>
-      </c>
-      <c r="D3">
-        <v>144562</v>
-      </c>
-      <c r="E3">
-        <v>47394</v>
-      </c>
-      <c r="F3">
-        <v>44507</v>
-      </c>
-      <c r="G3">
-        <v>42611</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="0">SUM(B3:G3)</f>
-        <v>373410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4">
-        <v>888</v>
-      </c>
-      <c r="C4">
-        <v>32394</v>
-      </c>
-      <c r="D4">
-        <v>48116</v>
-      </c>
-      <c r="E4">
-        <v>11954</v>
-      </c>
-      <c r="F4">
-        <v>16997</v>
-      </c>
-      <c r="G4">
-        <v>14189</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>124538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5">
-        <v>4762</v>
-      </c>
-      <c r="C5">
-        <v>9476</v>
-      </c>
-      <c r="D5">
-        <v>29663</v>
-      </c>
-      <c r="E5">
-        <v>13787</v>
-      </c>
-      <c r="F5">
-        <v>7986</v>
-      </c>
-      <c r="G5">
-        <v>7345</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>73019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B6">
-        <v>1677</v>
-      </c>
-      <c r="C6">
-        <v>232852</v>
-      </c>
-      <c r="D6">
-        <v>234628</v>
-      </c>
-      <c r="E6">
-        <v>65954</v>
-      </c>
-      <c r="F6">
-        <v>101827</v>
-      </c>
-      <c r="G6">
-        <v>60457</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>697395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B7">
-        <v>2126</v>
-      </c>
-      <c r="C7">
-        <v>104655</v>
-      </c>
-      <c r="D7">
-        <v>118645</v>
-      </c>
-      <c r="E7">
-        <v>70556</v>
-      </c>
-      <c r="F7">
-        <v>49878</v>
-      </c>
-      <c r="G7">
-        <v>37641</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>383501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B8">
-        <v>4944</v>
-      </c>
-      <c r="C8">
-        <v>249554</v>
-      </c>
-      <c r="D8">
-        <v>305609</v>
-      </c>
-      <c r="E8">
-        <v>218765</v>
-      </c>
-      <c r="F8">
-        <v>130364</v>
-      </c>
-      <c r="G8">
-        <v>86989</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>996225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9">
-        <v>1813</v>
-      </c>
-      <c r="C9">
-        <v>19506</v>
-      </c>
-      <c r="D9">
-        <v>51650</v>
-      </c>
-      <c r="E9">
-        <v>19273</v>
-      </c>
-      <c r="F9">
-        <v>22223</v>
-      </c>
-      <c r="G9">
-        <v>16252</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>130717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B10">
-        <v>6176</v>
-      </c>
-      <c r="C10">
-        <v>37662</v>
-      </c>
-      <c r="D10">
-        <v>86231</v>
-      </c>
-      <c r="E10">
-        <v>37276</v>
-      </c>
-      <c r="F10">
-        <v>27926</v>
-      </c>
-      <c r="G10">
-        <v>26515</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>221786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>27566</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:G11" si="1">SUM(C2:C10)</f>
-        <v>915485</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1272906</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>616051</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>483578</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>358170</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>3673756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2635</v>
-      </c>
-      <c r="C3" s="2">
-        <v>148656</v>
-      </c>
-      <c r="D3" s="2">
-        <v>264684</v>
-      </c>
-      <c r="E3" s="2">
-        <v>147552</v>
-      </c>
-      <c r="F3" s="2">
-        <v>92711</v>
-      </c>
-      <c r="G3" s="2">
-        <v>70309</v>
-      </c>
-      <c r="H3" s="2">
-        <v>726547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3911</v>
-      </c>
-      <c r="C4" s="2">
-        <v>95133</v>
-      </c>
-      <c r="D4" s="2">
-        <v>146907</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50322</v>
-      </c>
-      <c r="F4" s="2">
-        <v>49299</v>
-      </c>
-      <c r="G4" s="2">
-        <v>42981</v>
-      </c>
-      <c r="H4" s="2">
-        <v>388553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="2">
-        <v>954</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32060</v>
-      </c>
-      <c r="D5" s="2">
-        <v>49589</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12238</v>
-      </c>
-      <c r="F5" s="2">
-        <v>18746</v>
-      </c>
-      <c r="G5" s="2">
-        <v>14024</v>
-      </c>
-      <c r="H5" s="2">
-        <v>127611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5200</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10276</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30656</v>
-      </c>
-      <c r="E6" s="2">
-        <v>14706</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8068</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7709</v>
-      </c>
-      <c r="H6" s="2">
-        <v>76615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1573</v>
-      </c>
-      <c r="C7" s="2">
-        <v>236585</v>
-      </c>
-      <c r="D7" s="2">
-        <v>238502</v>
-      </c>
-      <c r="E7" s="2">
-        <v>71194</v>
-      </c>
-      <c r="F7" s="2">
-        <v>105521</v>
-      </c>
-      <c r="G7" s="2">
-        <v>62360</v>
-      </c>
-      <c r="H7" s="2">
-        <v>715735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2282</v>
-      </c>
-      <c r="C8" s="2">
-        <v>109021</v>
-      </c>
-      <c r="D8" s="2">
-        <v>120804</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75868</v>
-      </c>
-      <c r="F8" s="2">
-        <v>53430</v>
-      </c>
-      <c r="G8" s="2">
-        <v>38850</v>
-      </c>
-      <c r="H8" s="2">
-        <v>400255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5818</v>
-      </c>
-      <c r="C9" s="2">
-        <v>263972</v>
-      </c>
-      <c r="D9" s="2">
-        <v>320817</v>
-      </c>
-      <c r="E9" s="2">
-        <v>237602</v>
-      </c>
-      <c r="F9" s="2">
-        <v>146189</v>
-      </c>
-      <c r="G9" s="2">
-        <v>93460</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1067858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2332</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20021</v>
-      </c>
-      <c r="D10" s="2">
-        <v>56536</v>
-      </c>
-      <c r="E10" s="2">
-        <v>23392</v>
-      </c>
-      <c r="F10" s="2">
-        <v>26955</v>
-      </c>
-      <c r="G10" s="2">
-        <v>17783</v>
-      </c>
-      <c r="H10" s="2">
-        <v>147019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7095</v>
-      </c>
-      <c r="C11" s="2">
-        <v>38801</v>
-      </c>
-      <c r="D11" s="2">
-        <v>85397</v>
-      </c>
-      <c r="E11" s="2">
-        <v>38321</v>
-      </c>
-      <c r="F11" s="2">
-        <v>30066</v>
-      </c>
-      <c r="G11" s="2">
-        <v>27079</v>
-      </c>
-      <c r="H11" s="2">
-        <v>226759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="2">
-        <v>31800</v>
-      </c>
-      <c r="C12" s="2">
-        <v>954525</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1313892</v>
-      </c>
-      <c r="E12" s="2">
-        <v>671195</v>
-      </c>
-      <c r="F12" s="2">
-        <v>530985</v>
-      </c>
-      <c r="G12" s="2">
-        <v>374555</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3876952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="1">
-        <f>B12/$H12</f>
-        <v>8.202319760471628E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:H13" si="0">C12/$H12</f>
-        <v>0.24620500847057172</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33889818599766003</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17312440288143882</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13695939490610148</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>9.6610687983756313E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C16" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E16" t="s">
-        <v>449</v>
-      </c>
-      <c r="F16" t="s">
-        <v>448</v>
-      </c>
-      <c r="G16" t="s">
-        <v>450</v>
-      </c>
-      <c r="H16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>498</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1921</v>
-      </c>
-      <c r="C17" s="2">
-        <v>138309</v>
-      </c>
-      <c r="D17" s="2">
-        <v>253802</v>
-      </c>
-      <c r="E17" s="2">
-        <v>131092</v>
-      </c>
-      <c r="F17" s="2">
-        <v>81870</v>
-      </c>
-      <c r="G17" s="2">
-        <v>66171</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(B17:G17)</f>
-        <v>673165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>499</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3259</v>
-      </c>
-      <c r="C18" s="2">
-        <v>91077</v>
-      </c>
-      <c r="D18" s="2">
-        <v>144562</v>
-      </c>
-      <c r="E18" s="2">
-        <v>47394</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44507</v>
-      </c>
-      <c r="G18" s="2">
-        <v>42611</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" ref="H18:H26" si="1">SUM(B18:G18)</f>
-        <v>373410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>500</v>
-      </c>
-      <c r="B19" s="2">
-        <v>888</v>
-      </c>
-      <c r="C19" s="2">
-        <v>32394</v>
-      </c>
-      <c r="D19" s="2">
-        <v>48116</v>
-      </c>
-      <c r="E19" s="2">
-        <v>11954</v>
-      </c>
-      <c r="F19" s="2">
-        <v>16997</v>
-      </c>
-      <c r="G19" s="2">
-        <v>14189</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>124538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>501</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4762</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9476</v>
-      </c>
-      <c r="D20" s="2">
-        <v>29663</v>
-      </c>
-      <c r="E20" s="2">
-        <v>13787</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7986</v>
-      </c>
-      <c r="G20" s="2">
-        <v>7345</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>73019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>502</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1677</v>
-      </c>
-      <c r="C21" s="2">
-        <v>232852</v>
-      </c>
-      <c r="D21" s="2">
-        <v>234628</v>
-      </c>
-      <c r="E21" s="2">
-        <v>65954</v>
-      </c>
-      <c r="F21" s="2">
-        <v>101827</v>
-      </c>
-      <c r="G21" s="2">
-        <v>60457</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>697395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>503</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2126</v>
-      </c>
-      <c r="C22" s="2">
-        <v>104655</v>
-      </c>
-      <c r="D22" s="2">
-        <v>118645</v>
-      </c>
-      <c r="E22" s="2">
-        <v>70556</v>
-      </c>
-      <c r="F22" s="2">
-        <v>49878</v>
-      </c>
-      <c r="G22" s="2">
-        <v>37641</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>383501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>504</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4944</v>
-      </c>
-      <c r="C23" s="2">
-        <v>249554</v>
-      </c>
-      <c r="D23" s="2">
-        <v>305609</v>
-      </c>
-      <c r="E23" s="2">
-        <v>218765</v>
-      </c>
-      <c r="F23" s="2">
-        <v>130364</v>
-      </c>
-      <c r="G23" s="2">
-        <v>86989</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>996225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>505</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1813</v>
-      </c>
-      <c r="C24" s="2">
-        <v>19506</v>
-      </c>
-      <c r="D24" s="2">
-        <v>51650</v>
-      </c>
-      <c r="E24" s="2">
-        <v>19273</v>
-      </c>
-      <c r="F24" s="2">
-        <v>22223</v>
-      </c>
-      <c r="G24" s="2">
-        <v>16252</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>130717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>506</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6176</v>
-      </c>
-      <c r="C25" s="2">
-        <v>37662</v>
-      </c>
-      <c r="D25" s="2">
-        <v>86231</v>
-      </c>
-      <c r="E25" s="2">
-        <v>37276</v>
-      </c>
-      <c r="F25" s="2">
-        <v>27926</v>
-      </c>
-      <c r="G25" s="2">
-        <v>26515</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>221786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>444</v>
-      </c>
-      <c r="B26" s="2">
-        <f>SUM(B17:B25)</f>
-        <v>27566</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:G26" si="2">SUM(C17:C25)</f>
-        <v>915485</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="2"/>
-        <v>1272906</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="2"/>
-        <v>616051</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>483578</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
-        <v>358170</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>3673756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="1">
-        <f>B26/$H26</f>
-        <v>7.5034923386310907E-3</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" ref="C27" si="3">C26/$H26</f>
-        <v>0.24919591829179727</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ref="D27" si="4">D26/$H26</f>
-        <v>0.34648626637152824</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" ref="E27" si="5">E26/$H26</f>
-        <v>0.16768968870006609</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ref="F27" si="6">F26/$H26</f>
-        <v>0.13163040768085851</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ref="G27" si="7">G26/$H26</f>
-        <v>9.7494226617118832E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ref="H27" si="8">H26/$H26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>507</v>
-      </c>
-      <c r="B30" t="s">
-        <v>447</v>
-      </c>
-      <c r="C30" t="s">
-        <v>451</v>
-      </c>
-      <c r="D30" t="s">
-        <v>452</v>
-      </c>
-      <c r="E30" t="s">
-        <v>449</v>
-      </c>
-      <c r="F30" t="s">
-        <v>448</v>
-      </c>
-      <c r="G30" t="s">
-        <v>450</v>
-      </c>
-      <c r="H30" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>498</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ref="B31:B40" si="9">B3-B17</f>
-        <v>714</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" ref="C31:H31" si="10">C3-C17</f>
-        <v>10347</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>10882</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="10"/>
-        <v>16460</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="10"/>
-        <v>10841</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="10"/>
-        <v>4138</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="10"/>
-        <v>53382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>499</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="9"/>
-        <v>652</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" ref="C32:H40" si="11">C4-C18</f>
-        <v>4056</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="11"/>
-        <v>2345</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>2928</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="11"/>
-        <v>4792</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="11"/>
-        <v>370</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="11"/>
-        <v>15143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>500</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="11"/>
-        <v>-334</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="11"/>
-        <v>1473</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>284</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="11"/>
-        <v>1749</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="11"/>
-        <v>-165</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="11"/>
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>501</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="9"/>
-        <v>438</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="11"/>
-        <v>800</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="11"/>
-        <v>993</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>919</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="11"/>
-        <v>364</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="11"/>
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>502</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="9"/>
-        <v>-104</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="11"/>
-        <v>3733</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="11"/>
-        <v>3874</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>5240</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="11"/>
-        <v>3694</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="11"/>
-        <v>1903</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="11"/>
-        <v>18340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>503</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="9"/>
-        <v>156</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="11"/>
-        <v>4366</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="11"/>
-        <v>2159</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>5312</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="11"/>
-        <v>3552</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="11"/>
-        <v>1209</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="11"/>
-        <v>16754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>504</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="9"/>
-        <v>874</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="11"/>
-        <v>14418</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="11"/>
-        <v>15208</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>18837</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="11"/>
-        <v>15825</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="11"/>
-        <v>6471</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="11"/>
-        <v>71633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>505</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="9"/>
-        <v>519</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="11"/>
-        <v>515</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="11"/>
-        <v>4886</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>4119</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="11"/>
-        <v>4732</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="11"/>
-        <v>1531</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="11"/>
-        <v>16302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>506</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="9"/>
-        <v>919</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="11"/>
-        <v>1139</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="11"/>
-        <v>-834</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="11"/>
-        <v>1045</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="11"/>
-        <v>2140</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="11"/>
-        <v>564</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="11"/>
-        <v>4973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>444</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="9"/>
-        <v>4234</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="11"/>
-        <v>39040</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="11"/>
-        <v>40986</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="11"/>
-        <v>55144</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="11"/>
-        <v>47407</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="11"/>
-        <v>16385</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="11"/>
-        <v>203196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>512</v>
-      </c>
-      <c r="B41" s="1">
-        <f>B40/$H40</f>
-        <v>2.0837024350873048E-2</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" ref="C41" si="12">C40/$H40</f>
-        <v>0.19212976633398296</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" ref="D41" si="13">D40/$H40</f>
-        <v>0.20170672651036436</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" ref="E41" si="14">E40/$H40</f>
-        <v>0.2713832949467509</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ref="F41" si="15">F40/$H40</f>
-        <v>0.23330675800704739</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ref="G41" si="16">G40/$H40</f>
-        <v>8.0636429850981323E-2</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ref="H41" si="17">H40/$H40</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>4234</v>
-      </c>
-      <c r="B2" s="2">
-        <v>39040</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40986</v>
-      </c>
-      <c r="D2" s="2">
-        <v>55144</v>
-      </c>
-      <c r="E2" s="2">
-        <v>47407</v>
-      </c>
-      <c r="F2" s="2">
-        <v>16385</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>203196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>